--- a/Twitters_19thCongressMembers.xlsx
+++ b/Twitters_19thCongressMembers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B8AC00-A2A5-4EAF-A301-7DB273B280F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84FF5AF-A0E5-4EB0-B46D-5A61C70D68BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C0650F-6D5B-4461-AA3F-5F73C03E0D01}"/>
   </bookViews>
@@ -3870,7 +3870,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3889,6 +3889,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3902,7 +3908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3930,6 +3936,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4269,7 +4278,7 @@
   <dimension ref="A1:H546"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4852,7 +4861,7 @@
       <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4878,7 +4887,7 @@
       <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4904,7 +4913,7 @@
       <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4930,7 +4939,7 @@
       <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4956,7 +4965,7 @@
       <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5008,7 +5017,7 @@
       <c r="G28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5034,7 +5043,7 @@
       <c r="G29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5138,7 +5147,7 @@
       <c r="G33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5190,7 +5199,7 @@
       <c r="G35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5242,7 +5251,7 @@
       <c r="G37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5294,7 +5303,7 @@
       <c r="G39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5320,7 +5329,7 @@
       <c r="G40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5346,7 +5355,7 @@
       <c r="G41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -16528,7 +16537,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
         <v>1102</v>
       </c>

--- a/Twitters_19thCongressMembers.xlsx
+++ b/Twitters_19thCongressMembers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84FF5AF-A0E5-4EB0-B46D-5A61C70D68BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB4397-1F37-4073-86B5-921DCFE763A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C0650F-6D5B-4461-AA3F-5F73C03E0D01}"/>
   </bookViews>
@@ -3870,7 +3870,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3885,14 +3885,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3908,7 +3914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3928,9 +3934,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3938,7 +3941,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4277,8 +4286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712D87A-21AD-4759-B6E5-0245C6DE7A64}">
   <dimension ref="A1:H546"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4653,7 +4662,7 @@
       <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4861,7 +4870,7 @@
       <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4887,7 +4896,7 @@
       <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4913,7 +4922,7 @@
       <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4939,7 +4948,7 @@
       <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4965,7 +4974,7 @@
       <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5017,7 +5026,7 @@
       <c r="G28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5043,7 +5052,7 @@
       <c r="G29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5147,7 +5156,7 @@
       <c r="G33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5199,7 +5208,7 @@
       <c r="G35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5251,7 +5260,7 @@
       <c r="G37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5303,7 +5312,7 @@
       <c r="G39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5329,7 +5338,7 @@
       <c r="G40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5355,7 +5364,7 @@
       <c r="G41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5381,7 +5390,7 @@
       <c r="G42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5407,7 +5416,7 @@
       <c r="G43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="12" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5433,7 +5442,7 @@
       <c r="G44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5459,7 +5468,7 @@
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="11" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5485,7 +5494,7 @@
       <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="11" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5511,7 +5520,7 @@
       <c r="G47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5537,7 +5546,7 @@
       <c r="G48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5563,7 +5572,7 @@
       <c r="G49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5589,7 +5598,7 @@
       <c r="G50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="11" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5615,7 +5624,7 @@
       <c r="G51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="11" t="s">
         <v>172</v>
       </c>
     </row>
@@ -16327,7 +16336,7 @@
       <c r="G463" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="H463" s="8"/>
+      <c r="H463" s="7"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
@@ -16559,7 +16568,7 @@
       <c r="G472" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H472" s="9" t="s">
+      <c r="H472" s="8" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -17833,7 +17842,7 @@
       <c r="G521" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H521" s="10" t="s">
+      <c r="H521" s="9" t="s">
         <v>1211</v>
       </c>
     </row>

--- a/Twitters_19thCongressMembers.xlsx
+++ b/Twitters_19thCongressMembers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB4397-1F37-4073-86B5-921DCFE763A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D34347D-CD49-4CAE-9B1C-78CF72425115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C0650F-6D5B-4461-AA3F-5F73C03E0D01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3936" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="1268">
   <si>
     <t>Name</t>
   </si>
@@ -3837,6 +3837,9 @@
   </si>
   <si>
     <t>"@RepRyanZinke"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -4284,10 +4287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712D87A-21AD-4759-B6E5-0245C6DE7A64}">
-  <dimension ref="A1:H546"/>
+  <dimension ref="A1:M546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5468,7 +5471,7 @@
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="12" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5494,7 +5497,7 @@
       <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="12" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5520,7 +5523,7 @@
       <c r="G47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="12" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5546,11 +5549,11 @@
       <c r="G48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>166</v>
       </c>
@@ -5572,11 +5575,11 @@
       <c r="G49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>168</v>
       </c>
@@ -5598,11 +5601,11 @@
       <c r="G50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>171</v>
       </c>
@@ -5624,11 +5627,11 @@
       <c r="G51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>173</v>
       </c>
@@ -5650,11 +5653,11 @@
       <c r="G52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>175</v>
       </c>
@@ -5676,11 +5679,11 @@
       <c r="G53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>177</v>
       </c>
@@ -5702,11 +5705,11 @@
       <c r="G54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>180</v>
       </c>
@@ -5728,11 +5731,11 @@
       <c r="G55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>182</v>
       </c>
@@ -5754,11 +5757,11 @@
       <c r="G56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>184</v>
       </c>
@@ -5780,11 +5783,11 @@
       <c r="G57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>186</v>
       </c>
@@ -5806,11 +5809,11 @@
       <c r="G58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>188</v>
       </c>
@@ -5832,11 +5835,11 @@
       <c r="G59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>190</v>
       </c>
@@ -5858,11 +5861,11 @@
       <c r="G60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>192</v>
       </c>
@@ -5884,11 +5887,14 @@
       <c r="G61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="12" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M61" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>195</v>
       </c>
@@ -5910,11 +5916,11 @@
       <c r="G62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>199</v>
       </c>
@@ -5936,11 +5942,11 @@
       <c r="G63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>201</v>
       </c>
@@ -5962,7 +5968,7 @@
       <c r="G64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="12" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5988,7 +5994,7 @@
       <c r="G65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="12" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6014,7 +6020,7 @@
       <c r="G66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="12" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6040,7 +6046,7 @@
       <c r="G67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="12" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6066,7 +6072,7 @@
       <c r="G68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="12" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6092,7 +6098,7 @@
       <c r="G69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="12" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6118,7 +6124,7 @@
       <c r="G70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="12" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6144,7 +6150,7 @@
       <c r="G71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="12" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6170,7 +6176,7 @@
       <c r="G72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="11" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6196,7 +6202,7 @@
       <c r="G73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6222,7 +6228,7 @@
       <c r="G74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="11" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6248,7 +6254,7 @@
       <c r="G75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6274,7 +6280,7 @@
       <c r="G76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6300,7 +6306,7 @@
       <c r="G77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6326,7 +6332,7 @@
       <c r="G78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="11" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6352,7 +6358,7 @@
       <c r="G79" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="11" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6378,7 +6384,7 @@
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="11" t="s">
         <v>244</v>
       </c>
     </row>

--- a/Twitters_19thCongressMembers.xlsx
+++ b/Twitters_19thCongressMembers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D34347D-CD49-4CAE-9B1C-78CF72425115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A81A4C2-56F8-4A4B-A56A-371FA3AC970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C0650F-6D5B-4461-AA3F-5F73C03E0D01}"/>
   </bookViews>
@@ -4289,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712D87A-21AD-4759-B6E5-0245C6DE7A64}">
   <dimension ref="A1:M546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5972,7 +5972,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>203</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>206</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>208</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>211</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>214</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>216</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>220</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>223</v>
       </c>
@@ -6176,11 +6176,11 @@
       <c r="G72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>225</v>
       </c>
@@ -6202,11 +6202,11 @@
       <c r="G73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="12" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>227</v>
       </c>
@@ -6228,11 +6228,11 @@
       <c r="G74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>229</v>
       </c>
@@ -6254,11 +6254,11 @@
       <c r="G75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>232</v>
       </c>
@@ -6280,11 +6280,12 @@
       <c r="G76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H76" s="12" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>235</v>
       </c>
@@ -6309,8 +6310,9 @@
       <c r="H77" s="11" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>237</v>
       </c>
@@ -6332,11 +6334,11 @@
       <c r="G78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H78" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>240</v>
       </c>
@@ -6358,11 +6360,12 @@
       <c r="G79" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="H79" s="12" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>242</v>
       </c>
@@ -6384,7 +6387,7 @@
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H80" s="12" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6410,7 +6413,7 @@
       <c r="G81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="11" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6436,7 +6439,7 @@
       <c r="G82" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="11" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6462,7 +6465,7 @@
       <c r="G83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="11" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6488,7 +6491,7 @@
       <c r="G84" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="11" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6514,7 +6517,7 @@
       <c r="G85" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="11" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6540,7 +6543,7 @@
       <c r="G86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H86" s="11" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6566,7 +6569,7 @@
       <c r="G87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H87" s="12" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6592,7 +6595,7 @@
       <c r="G88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H88" s="11" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6618,7 +6621,7 @@
       <c r="G89" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="12" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6644,7 +6647,7 @@
       <c r="G90" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="11" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6670,7 +6673,7 @@
       <c r="G91" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H91" s="11" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6696,7 +6699,7 @@
       <c r="G92" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="11" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6722,7 +6725,7 @@
       <c r="G93" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="11" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6748,7 +6751,7 @@
       <c r="G94" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="11" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6774,7 +6777,7 @@
       <c r="G95" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H95" s="11" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6800,7 +6803,7 @@
       <c r="G96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H96" s="11" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6826,7 +6829,7 @@
       <c r="G97" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H97" s="11" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6852,7 +6855,7 @@
       <c r="G98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="11" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6878,7 +6881,7 @@
       <c r="G99" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="11" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6904,7 +6907,7 @@
       <c r="G100" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="11" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6930,7 +6933,7 @@
       <c r="G101" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="11" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6956,7 +6959,7 @@
       <c r="G102" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="11" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6982,7 +6985,7 @@
       <c r="G103" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="11" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7008,7 +7011,7 @@
       <c r="G104" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="11" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7034,7 +7037,7 @@
       <c r="G105" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="11" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7060,7 +7063,7 @@
       <c r="G106" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="H106" s="11" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7086,7 +7089,7 @@
       <c r="G107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="H107" s="11" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7112,7 +7115,7 @@
       <c r="G108" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="5" t="s">
+      <c r="H108" s="11" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7138,7 +7141,7 @@
       <c r="G109" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H109" s="11" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7164,7 +7167,7 @@
       <c r="G110" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H110" s="11" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7190,7 +7193,7 @@
       <c r="G111" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="H111" s="11" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7216,7 +7219,7 @@
       <c r="G112" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H112" s="11" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7242,7 +7245,7 @@
       <c r="G113" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H113" s="11" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7268,7 +7271,7 @@
       <c r="G114" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H114" s="11" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7294,7 +7297,7 @@
       <c r="G115" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H115" s="11" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7320,7 +7323,7 @@
       <c r="G116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H116" s="11" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7346,7 +7349,7 @@
       <c r="G117" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H117" s="11" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7372,7 +7375,7 @@
       <c r="G118" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H118" s="11" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7398,7 +7401,7 @@
       <c r="G119" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H119" s="11" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7424,7 +7427,7 @@
       <c r="G120" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H120" s="11" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7450,7 +7453,7 @@
       <c r="G121" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="H121" s="11" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7476,7 +7479,7 @@
       <c r="G122" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H122" s="11" t="s">
         <v>346</v>
       </c>
     </row>
@@ -7502,7 +7505,7 @@
       <c r="G123" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H123" s="11" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7528,7 +7531,7 @@
       <c r="G124" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H124" s="11" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7554,7 +7557,7 @@
       <c r="G125" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H125" s="11" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7580,7 +7583,7 @@
       <c r="G126" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H126" s="5" t="s">
+      <c r="H126" s="11" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7606,7 +7609,7 @@
       <c r="G127" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="H127" s="11" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7632,7 +7635,7 @@
       <c r="G128" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="H128" s="11" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7658,7 +7661,7 @@
       <c r="G129" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H129" s="11" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7684,7 +7687,7 @@
       <c r="G130" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="H130" s="11" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7710,7 +7713,7 @@
       <c r="G131" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H131" s="11" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7736,7 +7739,7 @@
       <c r="G132" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H132" s="5" t="s">
+      <c r="H132" s="11" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7762,7 +7765,7 @@
       <c r="G133" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H133" s="5" t="s">
+      <c r="H133" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7788,7 +7791,7 @@
       <c r="G134" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H134" s="11" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7814,7 +7817,7 @@
       <c r="G135" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="H135" s="11" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7840,7 +7843,7 @@
       <c r="G136" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H136" s="5" t="s">
+      <c r="H136" s="11" t="s">
         <v>376</v>
       </c>
     </row>
@@ -7866,7 +7869,7 @@
       <c r="G137" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H137" s="5" t="s">
+      <c r="H137" s="11" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7892,7 +7895,7 @@
       <c r="G138" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="H138" s="11" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7918,7 +7921,7 @@
       <c r="G139" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H139" s="5" t="s">
+      <c r="H139" s="11" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7944,7 +7947,7 @@
       <c r="G140" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="H140" s="11" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7970,7 +7973,7 @@
       <c r="G141" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="H141" s="11" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7996,7 +7999,7 @@
       <c r="G142" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="H142" s="11" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8022,7 +8025,7 @@
       <c r="G143" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="H143" s="11" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8048,7 +8051,7 @@
       <c r="G144" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="H144" s="11" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8074,7 +8077,7 @@
       <c r="G145" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="H145" s="11" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8100,7 +8103,7 @@
       <c r="G146" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H146" s="5" t="s">
+      <c r="H146" s="11" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8126,7 +8129,7 @@
       <c r="G147" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H147" s="5" t="s">
+      <c r="H147" s="11" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8152,7 +8155,7 @@
       <c r="G148" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="H148" s="11" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8178,7 +8181,7 @@
       <c r="G149" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H149" s="5" t="s">
+      <c r="H149" s="11" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8204,7 +8207,7 @@
       <c r="G150" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="H150" s="11" t="s">
         <v>408</v>
       </c>
     </row>

--- a/Twitters_19thCongressMembers.xlsx
+++ b/Twitters_19thCongressMembers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A81A4C2-56F8-4A4B-A56A-371FA3AC970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548ACADF-1919-4F26-85CD-6E278A8FACD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C0650F-6D5B-4461-AA3F-5F73C03E0D01}"/>
   </bookViews>
@@ -3873,24 +3873,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAF2D0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3917,7 +3905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3934,9 +3922,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3944,13 +3929,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4289,8 +4274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712D87A-21AD-4759-B6E5-0245C6DE7A64}">
   <dimension ref="A1:M546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4353,7 +4338,7 @@
       <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4379,7 +4364,7 @@
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4405,7 +4390,7 @@
       <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4431,7 +4416,7 @@
       <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4457,7 +4442,7 @@
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4483,7 +4468,7 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4509,7 +4494,7 @@
       <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4535,7 +4520,7 @@
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4561,7 +4546,7 @@
       <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4587,7 +4572,7 @@
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4613,7 +4598,7 @@
       <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4639,7 +4624,7 @@
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4665,7 +4650,7 @@
       <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4691,7 +4676,7 @@
       <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4717,7 +4702,7 @@
       <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4743,7 +4728,7 @@
       <c r="G17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4769,7 +4754,7 @@
       <c r="G18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4795,7 +4780,7 @@
       <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4821,7 +4806,7 @@
       <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4847,7 +4832,7 @@
       <c r="G21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4873,7 +4858,7 @@
       <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4899,7 +4884,7 @@
       <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4925,7 +4910,7 @@
       <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4951,7 +4936,7 @@
       <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4977,7 +4962,7 @@
       <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5003,7 +4988,7 @@
       <c r="G27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5029,7 +5014,7 @@
       <c r="G28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5055,7 +5040,7 @@
       <c r="G29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5081,7 +5066,7 @@
       <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5107,7 +5092,7 @@
       <c r="G31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5133,7 +5118,7 @@
       <c r="G32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5159,7 +5144,7 @@
       <c r="G33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5185,7 +5170,7 @@
       <c r="G34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5211,7 +5196,7 @@
       <c r="G35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5237,7 +5222,7 @@
       <c r="G36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5263,7 +5248,7 @@
       <c r="G37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5289,7 +5274,7 @@
       <c r="G38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5315,7 +5300,7 @@
       <c r="G39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5341,7 +5326,7 @@
       <c r="G40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5367,7 +5352,7 @@
       <c r="G41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5393,7 +5378,7 @@
       <c r="G42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="11" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5419,7 +5404,7 @@
       <c r="G43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="11" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5445,7 +5430,7 @@
       <c r="G44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5471,7 +5456,7 @@
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="11" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5497,7 +5482,7 @@
       <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="11" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5523,7 +5508,7 @@
       <c r="G47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5549,7 +5534,7 @@
       <c r="G48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5575,7 +5560,7 @@
       <c r="G49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5601,7 +5586,7 @@
       <c r="G50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="11" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5627,7 +5612,7 @@
       <c r="G51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="11" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5653,7 +5638,7 @@
       <c r="G52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="11" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5679,7 +5664,7 @@
       <c r="G53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="11" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5705,7 +5690,7 @@
       <c r="G54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="H54" s="11" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5731,7 +5716,7 @@
       <c r="G55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H55" s="11" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5757,7 +5742,7 @@
       <c r="G56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5783,7 +5768,7 @@
       <c r="G57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="11" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5809,7 +5794,7 @@
       <c r="G58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="11" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5835,7 +5820,7 @@
       <c r="G59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="11" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5861,7 +5846,7 @@
       <c r="G60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="H60" s="11" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5887,7 +5872,7 @@
       <c r="G61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="11" t="s">
         <v>194</v>
       </c>
       <c r="M61" t="s">
@@ -5916,7 +5901,7 @@
       <c r="G62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="11" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5942,7 +5927,7 @@
       <c r="G63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="12" t="s">
+      <c r="H63" s="11" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5968,7 +5953,7 @@
       <c r="G64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="11" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5994,7 +5979,7 @@
       <c r="G65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="11" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6020,7 +6005,7 @@
       <c r="G66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="12" t="s">
+      <c r="H66" s="11" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6046,7 +6031,7 @@
       <c r="G67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="11" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6072,7 +6057,7 @@
       <c r="G68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="H68" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6098,7 +6083,7 @@
       <c r="G69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="12" t="s">
+      <c r="H69" s="11" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6124,7 +6109,7 @@
       <c r="G70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="12" t="s">
+      <c r="H70" s="11" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6150,7 +6135,7 @@
       <c r="G71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="12" t="s">
+      <c r="H71" s="11" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6176,7 +6161,7 @@
       <c r="G72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="12" t="s">
+      <c r="H72" s="11" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6202,7 +6187,7 @@
       <c r="G73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="12" t="s">
+      <c r="H73" s="11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6228,7 +6213,7 @@
       <c r="G74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="12" t="s">
+      <c r="H74" s="11" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6254,7 +6239,7 @@
       <c r="G75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="12" t="s">
+      <c r="H75" s="11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6280,7 +6265,7 @@
       <c r="G76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="11" t="s">
         <v>234</v>
       </c>
       <c r="I76" s="5"/>
@@ -6334,7 +6319,7 @@
       <c r="G78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="12" t="s">
+      <c r="H78" s="11" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6360,7 +6345,7 @@
       <c r="G79" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="12" t="s">
+      <c r="H79" s="11" t="s">
         <v>241</v>
       </c>
       <c r="I79" s="5"/>
@@ -6387,7 +6372,7 @@
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="H80" s="11" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6569,7 +6554,7 @@
       <c r="G87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="12" t="s">
+      <c r="H87" s="11" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6621,7 +6606,7 @@
       <c r="G89" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="12" t="s">
+      <c r="H89" s="11" t="s">
         <v>265</v>
       </c>
     </row>
@@ -8233,7 +8218,7 @@
       <c r="G151" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="H151" s="11" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8259,7 +8244,7 @@
       <c r="G152" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="H152" s="11" t="s">
         <v>412</v>
       </c>
     </row>
@@ -8285,7 +8270,7 @@
       <c r="G153" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="H153" s="11" t="s">
         <v>412</v>
       </c>
     </row>
@@ -8311,7 +8296,7 @@
       <c r="G154" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="H154" s="11" t="s">
         <v>415</v>
       </c>
     </row>
@@ -16345,7 +16330,7 @@
       <c r="G463" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="H463" s="7"/>
+      <c r="H463" s="6"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
@@ -16577,7 +16562,7 @@
       <c r="G472" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H472" s="8" t="s">
+      <c r="H472" s="7" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -17851,7 +17836,7 @@
       <c r="G521" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H521" s="9" t="s">
+      <c r="H521" s="8" t="s">
         <v>1211</v>
       </c>
     </row>

--- a/Twitters_19thCongressMembers.xlsx
+++ b/Twitters_19thCongressMembers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548ACADF-1919-4F26-85CD-6E278A8FACD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E2E02-A902-4CF2-81A3-351F45393B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C0650F-6D5B-4461-AA3F-5F73C03E0D01}"/>
   </bookViews>
@@ -3935,7 +3935,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4274,8 +4274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712D87A-21AD-4759-B6E5-0245C6DE7A64}">
   <dimension ref="A1:M546"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4390,7 +4390,7 @@
       <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
       <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4598,7 +4598,7 @@
       <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4624,7 +4624,7 @@
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4650,7 +4650,7 @@
       <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
       <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
       <c r="G17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       <c r="G18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       <c r="G21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
       <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="G27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5014,7 +5014,7 @@
       <c r="G28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
       <c r="G29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5092,7 +5092,7 @@
       <c r="G31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
       <c r="G32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
       <c r="G33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5170,7 +5170,7 @@
       <c r="G34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       <c r="G35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="9" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5222,7 +5222,7 @@
       <c r="G36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="9" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       <c r="G37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       <c r="G38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
       <c r="G39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="5" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5326,7 +5326,7 @@
       <c r="G40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5352,7 +5352,7 @@
       <c r="G41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="5" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       <c r="G42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="5" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
       <c r="G43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       <c r="G44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="5" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="5" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       <c r="G47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="5" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5534,7 +5534,7 @@
       <c r="G48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       <c r="G49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="5" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="G50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
       <c r="G51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="5" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="G52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5664,7 +5664,7 @@
       <c r="G53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
       <c r="G54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       <c r="G55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="5" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5742,7 +5742,7 @@
       <c r="G56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       <c r="G57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="5" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
       <c r="G58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="5" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5820,7 +5820,7 @@
       <c r="G59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       <c r="G60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="5" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       <c r="G61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H61" s="5" t="s">
         <v>194</v>
       </c>
       <c r="M61" t="s">
@@ -5901,7 +5901,7 @@
       <c r="G62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="5" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       <c r="G63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5953,7 +5953,7 @@
       <c r="G64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="5" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       <c r="G65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="5" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       <c r="G66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       <c r="G67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="5" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       <c r="G68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="5" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6083,7 +6083,7 @@
       <c r="G69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="H69" s="5" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       <c r="G70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="H70" s="5" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       <c r="G71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       <c r="G72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="5" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
       <c r="G73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       <c r="G74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
       <c r="G75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
       <c r="G76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H76" s="5" t="s">
         <v>234</v>
       </c>
       <c r="I76" s="5"/>
@@ -6292,7 +6292,7 @@
       <c r="G77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="5" t="s">
         <v>236</v>
       </c>
       <c r="I77" s="5"/>
@@ -6319,7 +6319,7 @@
       <c r="G78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H78" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       <c r="G79" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="H79" s="5" t="s">
         <v>241</v>
       </c>
       <c r="I79" s="5"/>
@@ -6372,7 +6372,7 @@
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H80" s="5" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
       <c r="G81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="5" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       <c r="G82" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="11" t="s">
+      <c r="H82" s="5" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       <c r="G83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="H83" s="5" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
       <c r="G84" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="H84" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="G85" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H85" s="11" t="s">
+      <c r="H85" s="5" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
       <c r="G86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="H86" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6554,7 +6554,7 @@
       <c r="G87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H87" s="5" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       <c r="G88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="5" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
       <c r="G89" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="5" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6632,7 +6632,7 @@
       <c r="G90" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="5" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       <c r="G91" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="H91" s="5" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6684,7 +6684,7 @@
       <c r="G92" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="5" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
       <c r="G93" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H93" s="5" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       <c r="G94" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="11" t="s">
+      <c r="H94" s="5" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6762,7 +6762,7 @@
       <c r="G95" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="H95" s="5" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6788,7 +6788,7 @@
       <c r="G96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H96" s="11" t="s">
+      <c r="H96" s="5" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       <c r="G97" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H97" s="11" t="s">
+      <c r="H97" s="5" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6840,7 +6840,7 @@
       <c r="G98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H98" s="5" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6866,7 +6866,7 @@
       <c r="G99" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="11" t="s">
+      <c r="H99" s="5" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6892,7 +6892,7 @@
       <c r="G100" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="H100" s="5" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6918,7 +6918,7 @@
       <c r="G101" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="11" t="s">
+      <c r="H101" s="5" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       <c r="G102" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="11" t="s">
+      <c r="H102" s="5" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
       <c r="G103" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="H103" s="5" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6996,7 +6996,7 @@
       <c r="G104" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H104" s="11" t="s">
+      <c r="H104" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
       <c r="G105" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="H105" s="5" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7048,7 +7048,7 @@
       <c r="G106" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H106" s="11" t="s">
+      <c r="H106" s="5" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       <c r="G107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="11" t="s">
+      <c r="H107" s="5" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       <c r="G108" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="11" t="s">
+      <c r="H108" s="5" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       <c r="G109" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="11" t="s">
+      <c r="H109" s="5" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7152,7 +7152,7 @@
       <c r="G110" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H110" s="11" t="s">
+      <c r="H110" s="5" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7178,7 +7178,7 @@
       <c r="G111" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H111" s="11" t="s">
+      <c r="H111" s="5" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       <c r="G112" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H112" s="11" t="s">
+      <c r="H112" s="5" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7230,7 +7230,7 @@
       <c r="G113" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="11" t="s">
+      <c r="H113" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7256,7 +7256,7 @@
       <c r="G114" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H114" s="11" t="s">
+      <c r="H114" s="5" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
       <c r="G115" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="H115" s="5" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7308,7 +7308,7 @@
       <c r="G116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="H116" s="5" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7334,7 +7334,7 @@
       <c r="G117" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H117" s="11" t="s">
+      <c r="H117" s="5" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
       <c r="G118" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H118" s="11" t="s">
+      <c r="H118" s="5" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       <c r="G119" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H119" s="11" t="s">
+      <c r="H119" s="5" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7412,7 +7412,7 @@
       <c r="G120" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H120" s="5" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7438,7 +7438,7 @@
       <c r="G121" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H121" s="11" t="s">
+      <c r="H121" s="5" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7464,7 +7464,7 @@
       <c r="G122" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H122" s="11" t="s">
+      <c r="H122" s="5" t="s">
         <v>346</v>
       </c>
     </row>
@@ -7490,7 +7490,7 @@
       <c r="G123" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="11" t="s">
+      <c r="H123" s="5" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       <c r="G124" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H124" s="11" t="s">
+      <c r="H124" s="5" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7542,7 +7542,7 @@
       <c r="G125" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H125" s="11" t="s">
+      <c r="H125" s="5" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7568,7 +7568,7 @@
       <c r="G126" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H126" s="11" t="s">
+      <c r="H126" s="5" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7594,7 +7594,7 @@
       <c r="G127" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H127" s="11" t="s">
+      <c r="H127" s="5" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7620,7 +7620,7 @@
       <c r="G128" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="11" t="s">
+      <c r="H128" s="5" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="G129" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H129" s="11" t="s">
+      <c r="H129" s="5" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7672,7 +7672,7 @@
       <c r="G130" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H130" s="11" t="s">
+      <c r="H130" s="5" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7698,7 +7698,7 @@
       <c r="G131" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H131" s="11" t="s">
+      <c r="H131" s="5" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7724,7 +7724,7 @@
       <c r="G132" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H132" s="11" t="s">
+      <c r="H132" s="5" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7750,7 +7750,7 @@
       <c r="G133" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H133" s="11" t="s">
+      <c r="H133" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       <c r="G134" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H134" s="11" t="s">
+      <c r="H134" s="5" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       <c r="G135" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H135" s="11" t="s">
+      <c r="H135" s="5" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7828,7 +7828,7 @@
       <c r="G136" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H136" s="11" t="s">
+      <c r="H136" s="5" t="s">
         <v>376</v>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       <c r="G137" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H137" s="11" t="s">
+      <c r="H137" s="5" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7880,7 +7880,7 @@
       <c r="G138" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H138" s="11" t="s">
+      <c r="H138" s="5" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       <c r="G139" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H139" s="11" t="s">
+      <c r="H139" s="5" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7932,7 +7932,7 @@
       <c r="G140" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H140" s="11" t="s">
+      <c r="H140" s="5" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7958,7 +7958,7 @@
       <c r="G141" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="11" t="s">
+      <c r="H141" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       <c r="G142" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H142" s="11" t="s">
+      <c r="H142" s="5" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8010,7 +8010,7 @@
       <c r="G143" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H143" s="11" t="s">
+      <c r="H143" s="5" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8036,7 +8036,7 @@
       <c r="G144" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H144" s="11" t="s">
+      <c r="H144" s="5" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8062,7 +8062,7 @@
       <c r="G145" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H145" s="11" t="s">
+      <c r="H145" s="5" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8088,7 +8088,7 @@
       <c r="G146" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H146" s="11" t="s">
+      <c r="H146" s="5" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
       <c r="G147" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H147" s="11" t="s">
+      <c r="H147" s="5" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8140,7 +8140,7 @@
       <c r="G148" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H148" s="11" t="s">
+      <c r="H148" s="5" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8166,7 +8166,7 @@
       <c r="G149" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H149" s="11" t="s">
+      <c r="H149" s="5" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8192,7 +8192,7 @@
       <c r="G150" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H150" s="11" t="s">
+      <c r="H150" s="5" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       <c r="G151" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H151" s="11" t="s">
+      <c r="H151" s="5" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8244,7 +8244,7 @@
       <c r="G152" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H152" s="11" t="s">
+      <c r="H152" s="5" t="s">
         <v>412</v>
       </c>
     </row>
@@ -8270,7 +8270,7 @@
       <c r="G153" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H153" s="11" t="s">
+      <c r="H153" s="5" t="s">
         <v>412</v>
       </c>
     </row>
@@ -8296,7 +8296,7 @@
       <c r="G154" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H154" s="11" t="s">
+      <c r="H154" s="5" t="s">
         <v>415</v>
       </c>
     </row>

--- a/Twitters_19thCongressMembers.xlsx
+++ b/Twitters_19thCongressMembers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E2E02-A902-4CF2-81A3-351F45393B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670598DB-3FF1-486F-8CA3-1B75007F4ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C0650F-6D5B-4461-AA3F-5F73C03E0D01}"/>
   </bookViews>
@@ -4274,8 +4274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712D87A-21AD-4759-B6E5-0245C6DE7A64}">
   <dimension ref="A1:M546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5092,7 +5092,7 @@
       <c r="G31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
       <c r="G33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5170,7 +5170,7 @@
       <c r="G34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="10" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       <c r="G35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5222,7 +5222,7 @@
       <c r="G36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="10" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       <c r="G37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="10" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       <c r="G38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
       <c r="G39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="10" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5326,7 +5326,7 @@
       <c r="G40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5352,7 +5352,7 @@
       <c r="G41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="10" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       <c r="G42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="10" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
       <c r="G43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="10" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       <c r="G44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="10" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       <c r="G47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="10" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5534,7 +5534,7 @@
       <c r="G48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="10" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       <c r="G49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="10" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="G50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="10" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
       <c r="G51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="9" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="G52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="10" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5664,7 +5664,7 @@
       <c r="G53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="9" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
       <c r="G54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="9" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       <c r="G55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="9" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5742,7 +5742,7 @@
       <c r="G56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="9" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       <c r="G57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="9" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
       <c r="G58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="9" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5820,7 +5820,7 @@
       <c r="G59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="9" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       <c r="G60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="9" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       <c r="G61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="9" t="s">
         <v>194</v>
       </c>
       <c r="M61" t="s">
@@ -5901,7 +5901,7 @@
       <c r="G62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="9" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       <c r="G63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="9" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5953,7 +5953,7 @@
       <c r="G64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="9" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       <c r="G65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="9" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       <c r="G66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="9" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       <c r="G67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="10" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       <c r="G68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="9" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6083,7 +6083,7 @@
       <c r="G69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="9" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       <c r="G70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="9" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       <c r="G71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="9" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       <c r="G72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="9" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
       <c r="G73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="9" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       <c r="G74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="9" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
       <c r="G75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="9" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
       <c r="G76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="9" t="s">
         <v>234</v>
       </c>
       <c r="I76" s="5"/>
@@ -6292,7 +6292,7 @@
       <c r="G77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="9" t="s">
         <v>236</v>
       </c>
       <c r="I77" s="5"/>
@@ -6319,7 +6319,7 @@
       <c r="G78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="9" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       <c r="G79" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="9" t="s">
         <v>241</v>
       </c>
       <c r="I79" s="5"/>
@@ -6372,7 +6372,7 @@
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="9" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
       <c r="G81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="9" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       <c r="G82" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="9" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       <c r="G83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="9" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
       <c r="G84" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="9" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="G85" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="9" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
       <c r="G86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H86" s="9" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6554,7 +6554,7 @@
       <c r="G87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H87" s="9" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       <c r="G88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H88" s="9" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
       <c r="G89" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="9" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6632,7 +6632,7 @@
       <c r="G90" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="9" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       <c r="G91" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H91" s="9" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6684,7 +6684,7 @@
       <c r="G92" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="9" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
       <c r="G93" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="9" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       <c r="G94" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="9" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6762,7 +6762,7 @@
       <c r="G95" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H95" s="9" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6788,7 +6788,7 @@
       <c r="G96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H96" s="9" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       <c r="G97" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H97" s="9" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6840,7 +6840,7 @@
       <c r="G98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="9" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6866,7 +6866,7 @@
       <c r="G99" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="9" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6892,7 +6892,7 @@
       <c r="G100" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="9" t="s">
         <v>294</v>
       </c>
     </row>

--- a/Twitters_19thCongressMembers.xlsx
+++ b/Twitters_19thCongressMembers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670598DB-3FF1-486F-8CA3-1B75007F4ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F704A2-5B31-46E3-8552-5A4B1D0282CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C0650F-6D5B-4461-AA3F-5F73C03E0D01}"/>
   </bookViews>
@@ -4274,8 +4274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712D87A-21AD-4759-B6E5-0245C6DE7A64}">
   <dimension ref="A1:M546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5612,7 +5612,7 @@
       <c r="G51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="10" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5664,7 +5664,7 @@
       <c r="G53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="10" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
       <c r="G54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="10" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       <c r="G55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="10" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5742,7 +5742,7 @@
       <c r="G56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="10" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       <c r="G57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="10" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
       <c r="G58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="10" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5820,7 +5820,7 @@
       <c r="G59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="10" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       <c r="G60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="10" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       <c r="G61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="10" t="s">
         <v>194</v>
       </c>
       <c r="M61" t="s">
@@ -5901,7 +5901,7 @@
       <c r="G62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="10" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       <c r="G63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="10" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5953,7 +5953,7 @@
       <c r="G64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="10" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       <c r="G65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="10" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       <c r="G66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="10" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       <c r="G68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="10" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6083,7 +6083,7 @@
       <c r="G69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="10" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       <c r="G70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="10" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       <c r="G71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="10" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       <c r="G72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="10" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
       <c r="G73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="10" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       <c r="G74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
       <c r="G75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
       <c r="G76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="10" t="s">
         <v>234</v>
       </c>
       <c r="I76" s="5"/>
@@ -6292,7 +6292,7 @@
       <c r="G77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="10" t="s">
         <v>236</v>
       </c>
       <c r="I77" s="5"/>
@@ -6319,7 +6319,7 @@
       <c r="G78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       <c r="G79" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="10" t="s">
         <v>241</v>
       </c>
       <c r="I79" s="5"/>
@@ -6372,7 +6372,7 @@
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="10" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
       <c r="G81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="10" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       <c r="G82" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H82" s="10" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       <c r="G83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="10" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
       <c r="G84" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="10" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="G85" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="10" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
       <c r="G86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="H86" s="10" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6554,7 +6554,7 @@
       <c r="G87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="10" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       <c r="G88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="H88" s="10" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
       <c r="G89" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H89" s="10" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6632,7 +6632,7 @@
       <c r="G90" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="H90" s="10" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       <c r="G91" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="10" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6684,7 +6684,7 @@
       <c r="G92" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="10" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
       <c r="G93" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="10" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       <c r="G94" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="H94" s="10" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6762,7 +6762,7 @@
       <c r="G95" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="H95" s="10" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6788,7 +6788,7 @@
       <c r="G96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H96" s="10" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       <c r="G97" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="10" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6840,7 +6840,7 @@
       <c r="G98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="10" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6866,7 +6866,7 @@
       <c r="G99" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="10" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6892,7 +6892,7 @@
       <c r="G100" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="10" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6918,7 +6918,7 @@
       <c r="G101" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="9" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       <c r="G102" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="9" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
       <c r="G103" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="9" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6996,7 +6996,7 @@
       <c r="G104" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="9" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
       <c r="G105" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="9" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7048,7 +7048,7 @@
       <c r="G106" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="H106" s="9" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       <c r="G107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="H107" s="9" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       <c r="G108" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="5" t="s">
+      <c r="H108" s="9" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       <c r="G109" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H109" s="9" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7152,7 +7152,7 @@
       <c r="G110" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H110" s="9" t="s">
         <v>318</v>
       </c>
     </row>

--- a/Twitters_19thCongressMembers.xlsx
+++ b/Twitters_19thCongressMembers.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F704A2-5B31-46E3-8552-5A4B1D0282CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9537D1-0821-4F55-ADC5-8C3261896306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C0650F-6D5B-4461-AA3F-5F73C03E0D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$546</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="1269">
   <si>
     <t>Name</t>
   </si>
@@ -3840,6 +3843,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>"@RepFischbach"</t>
   </si>
 </sst>
 </file>
@@ -4274,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712D87A-21AD-4759-B6E5-0245C6DE7A64}">
   <dimension ref="A1:M546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H319" sqref="H319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6918,7 +6924,7 @@
       <c r="G101" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="10" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6944,7 +6950,7 @@
       <c r="G102" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="9" t="s">
+      <c r="H102" s="10" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6970,7 +6976,7 @@
       <c r="G103" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="H103" s="10" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6996,7 +7002,7 @@
       <c r="G104" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H104" s="9" t="s">
+      <c r="H104" s="10" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7022,7 +7028,7 @@
       <c r="G105" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H105" s="9" t="s">
+      <c r="H105" s="10" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7048,7 +7054,7 @@
       <c r="G106" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="10" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7074,7 +7080,7 @@
       <c r="G107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="9" t="s">
+      <c r="H107" s="10" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7100,7 +7106,7 @@
       <c r="G108" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="9" t="s">
+      <c r="H108" s="10" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7126,7 +7132,7 @@
       <c r="G109" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="H109" s="10" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7152,7 +7158,7 @@
       <c r="G110" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H110" s="9" t="s">
+      <c r="H110" s="10" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7178,7 +7184,7 @@
       <c r="G111" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="H111" s="10" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7204,7 +7210,7 @@
       <c r="G112" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H112" s="10" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7230,7 +7236,7 @@
       <c r="G113" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H113" s="10" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7256,7 +7262,7 @@
       <c r="G114" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H114" s="10" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7282,7 +7288,7 @@
       <c r="G115" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H115" s="10" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7308,7 +7314,7 @@
       <c r="G116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H116" s="10" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7334,7 +7340,7 @@
       <c r="G117" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H117" s="10" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7360,7 +7366,7 @@
       <c r="G118" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H118" s="10" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7386,7 +7392,7 @@
       <c r="G119" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H119" s="10" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7412,7 +7418,7 @@
       <c r="G120" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H120" s="10" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7438,7 +7444,7 @@
       <c r="G121" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="H121" s="10" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7464,7 +7470,7 @@
       <c r="G122" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H122" s="10" t="s">
         <v>346</v>
       </c>
     </row>
@@ -7490,7 +7496,7 @@
       <c r="G123" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H123" s="10" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7516,7 +7522,7 @@
       <c r="G124" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H124" s="10" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7542,7 +7548,7 @@
       <c r="G125" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H125" s="10" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7568,7 +7574,7 @@
       <c r="G126" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H126" s="5" t="s">
+      <c r="H126" s="10" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7594,7 +7600,7 @@
       <c r="G127" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="H127" s="10" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7620,7 +7626,7 @@
       <c r="G128" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="H128" s="10" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7646,7 +7652,7 @@
       <c r="G129" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H129" s="10" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7672,7 +7678,7 @@
       <c r="G130" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="H130" s="10" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7698,7 +7704,7 @@
       <c r="G131" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H131" s="10" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7724,7 +7730,7 @@
       <c r="G132" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H132" s="5" t="s">
+      <c r="H132" s="10" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7750,7 +7756,7 @@
       <c r="G133" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H133" s="5" t="s">
+      <c r="H133" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7776,7 +7782,7 @@
       <c r="G134" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H134" s="10" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7802,7 +7808,7 @@
       <c r="G135" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="H135" s="10" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7828,7 +7834,7 @@
       <c r="G136" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H136" s="5" t="s">
+      <c r="H136" s="10" t="s">
         <v>376</v>
       </c>
     </row>
@@ -7854,7 +7860,7 @@
       <c r="G137" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H137" s="5" t="s">
+      <c r="H137" s="10" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7880,7 +7886,7 @@
       <c r="G138" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="H138" s="10" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7906,7 +7912,7 @@
       <c r="G139" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H139" s="5" t="s">
+      <c r="H139" s="10" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7932,7 +7938,7 @@
       <c r="G140" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="H140" s="10" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7958,7 +7964,7 @@
       <c r="G141" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="H141" s="10" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7984,7 +7990,7 @@
       <c r="G142" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="H142" s="10" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8010,7 +8016,7 @@
       <c r="G143" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="H143" s="10" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8036,7 +8042,7 @@
       <c r="G144" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="H144" s="10" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8062,7 +8068,7 @@
       <c r="G145" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="H145" s="10" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8088,7 +8094,7 @@
       <c r="G146" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H146" s="5" t="s">
+      <c r="H146" s="10" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8114,7 +8120,7 @@
       <c r="G147" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H147" s="5" t="s">
+      <c r="H147" s="10" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8140,7 +8146,7 @@
       <c r="G148" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="H148" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8166,7 +8172,7 @@
       <c r="G149" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H149" s="5" t="s">
+      <c r="H149" s="10" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8192,7 +8198,7 @@
       <c r="G150" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="H150" s="10" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8218,7 +8224,7 @@
       <c r="G151" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="H151" s="10" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8244,7 +8250,7 @@
       <c r="G152" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="H152" s="10" t="s">
         <v>412</v>
       </c>
     </row>
@@ -8270,8 +8276,8 @@
       <c r="G153" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H153" s="5" t="s">
-        <v>412</v>
+      <c r="H153" s="10" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -8296,7 +8302,7 @@
       <c r="G154" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="H154" s="10" t="s">
         <v>415</v>
       </c>
     </row>
@@ -8322,7 +8328,7 @@
       <c r="G155" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="H155" s="10" t="s">
         <v>417</v>
       </c>
     </row>
@@ -8348,7 +8354,7 @@
       <c r="G156" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H156" s="5" t="s">
+      <c r="H156" s="10" t="s">
         <v>419</v>
       </c>
     </row>
@@ -8374,7 +8380,7 @@
       <c r="G157" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H157" s="5" t="s">
+      <c r="H157" s="10" t="s">
         <v>421</v>
       </c>
     </row>
@@ -8400,7 +8406,7 @@
       <c r="G158" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H158" s="5" t="s">
+      <c r="H158" s="10" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8426,7 +8432,7 @@
       <c r="G159" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H159" s="5" t="s">
+      <c r="H159" s="10" t="s">
         <v>425</v>
       </c>
     </row>
@@ -8452,7 +8458,7 @@
       <c r="G160" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H160" s="5" t="s">
+      <c r="H160" s="10" t="s">
         <v>428</v>
       </c>
     </row>
@@ -8478,7 +8484,7 @@
       <c r="G161" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H161" s="5" t="s">
+      <c r="H161" s="10" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8504,7 +8510,7 @@
       <c r="G162" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H162" s="5" t="s">
+      <c r="H162" s="10" t="s">
         <v>433</v>
       </c>
     </row>
@@ -8530,7 +8536,7 @@
       <c r="G163" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H163" s="5" t="s">
+      <c r="H163" s="10" t="s">
         <v>435</v>
       </c>
     </row>
@@ -8556,7 +8562,7 @@
       <c r="G164" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H164" s="5" t="s">
+      <c r="H164" s="10" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8582,7 +8588,7 @@
       <c r="G165" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H165" s="5" t="s">
+      <c r="H165" s="10" t="s">
         <v>439</v>
       </c>
     </row>
@@ -8608,7 +8614,7 @@
       <c r="G166" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H166" s="5" t="s">
+      <c r="H166" s="10" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8634,7 +8640,7 @@
       <c r="G167" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H167" s="5" t="s">
+      <c r="H167" s="10" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8660,7 +8666,7 @@
       <c r="G168" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H168" s="5" t="s">
+      <c r="H168" s="10" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8686,7 +8692,7 @@
       <c r="G169" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H169" s="5" t="s">
+      <c r="H169" s="10" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8712,7 +8718,7 @@
       <c r="G170" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="5" t="s">
+      <c r="H170" s="10" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8738,7 +8744,7 @@
       <c r="G171" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H171" s="5" t="s">
+      <c r="H171" s="10" t="s">
         <v>452</v>
       </c>
     </row>
@@ -8764,7 +8770,7 @@
       <c r="G172" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H172" s="5" t="s">
+      <c r="H172" s="10" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8790,7 +8796,7 @@
       <c r="G173" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H173" s="5" t="s">
+      <c r="H173" s="10" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8816,7 +8822,7 @@
       <c r="G174" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H174" s="5" t="s">
+      <c r="H174" s="10" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8842,7 +8848,7 @@
       <c r="G175" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H175" s="5" t="s">
+      <c r="H175" s="10" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8868,7 +8874,7 @@
       <c r="G176" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H176" s="5" t="s">
+      <c r="H176" s="10" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8894,7 +8900,7 @@
       <c r="G177" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H177" s="5" t="s">
+      <c r="H177" s="10" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8920,7 +8926,7 @@
       <c r="G178" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H178" s="5" t="s">
+      <c r="H178" s="10" t="s">
         <v>467</v>
       </c>
     </row>
@@ -8946,7 +8952,7 @@
       <c r="G179" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H179" s="5" t="s">
+      <c r="H179" s="10" t="s">
         <v>469</v>
       </c>
     </row>
@@ -8972,7 +8978,7 @@
       <c r="G180" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H180" s="5" t="s">
+      <c r="H180" s="10" t="s">
         <v>471</v>
       </c>
     </row>
@@ -8998,7 +9004,7 @@
       <c r="G181" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H181" s="5" t="s">
+      <c r="H181" s="10" t="s">
         <v>473</v>
       </c>
     </row>
@@ -9024,7 +9030,7 @@
       <c r="G182" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H182" s="5" t="s">
+      <c r="H182" s="10" t="s">
         <v>475</v>
       </c>
     </row>
@@ -9050,7 +9056,7 @@
       <c r="G183" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H183" s="5" t="s">
+      <c r="H183" s="10" t="s">
         <v>477</v>
       </c>
     </row>
@@ -9076,7 +9082,7 @@
       <c r="G184" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H184" s="5" t="s">
+      <c r="H184" s="10" t="s">
         <v>479</v>
       </c>
     </row>
@@ -9102,7 +9108,7 @@
       <c r="G185" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H185" s="5" t="s">
+      <c r="H185" s="10" t="s">
         <v>481</v>
       </c>
     </row>
@@ -9128,7 +9134,7 @@
       <c r="G186" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H186" s="5" t="s">
+      <c r="H186" s="10" t="s">
         <v>483</v>
       </c>
     </row>
@@ -9154,7 +9160,7 @@
       <c r="G187" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H187" s="5" t="s">
+      <c r="H187" s="10" t="s">
         <v>486</v>
       </c>
     </row>
@@ -9180,7 +9186,7 @@
       <c r="G188" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H188" s="5" t="s">
+      <c r="H188" s="10" t="s">
         <v>488</v>
       </c>
     </row>
@@ -9206,7 +9212,7 @@
       <c r="G189" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H189" s="5" t="s">
+      <c r="H189" s="10" t="s">
         <v>490</v>
       </c>
     </row>
@@ -9232,7 +9238,7 @@
       <c r="G190" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H190" s="5" t="s">
+      <c r="H190" s="10" t="s">
         <v>493</v>
       </c>
     </row>
@@ -9258,7 +9264,7 @@
       <c r="G191" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H191" s="5" t="s">
+      <c r="H191" s="10" t="s">
         <v>496</v>
       </c>
     </row>
@@ -9284,7 +9290,7 @@
       <c r="G192" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H192" s="5" t="s">
+      <c r="H192" s="10" t="s">
         <v>499</v>
       </c>
     </row>
@@ -9310,7 +9316,7 @@
       <c r="G193" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H193" s="5" t="s">
+      <c r="H193" s="10" t="s">
         <v>501</v>
       </c>
     </row>
@@ -9336,7 +9342,7 @@
       <c r="G194" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H194" s="5" t="s">
+      <c r="H194" s="10" t="s">
         <v>503</v>
       </c>
     </row>
@@ -9362,7 +9368,7 @@
       <c r="G195" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H195" s="5" t="s">
+      <c r="H195" s="10" t="s">
         <v>506</v>
       </c>
     </row>
@@ -9388,7 +9394,7 @@
       <c r="G196" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H196" s="5" t="s">
+      <c r="H196" s="10" t="s">
         <v>508</v>
       </c>
     </row>
@@ -9414,7 +9420,7 @@
       <c r="G197" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H197" s="5" t="s">
+      <c r="H197" s="10" t="s">
         <v>510</v>
       </c>
     </row>
@@ -9440,7 +9446,7 @@
       <c r="G198" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H198" s="5" t="s">
+      <c r="H198" s="10" t="s">
         <v>513</v>
       </c>
     </row>
@@ -9466,7 +9472,7 @@
       <c r="G199" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H199" s="5" t="s">
+      <c r="H199" s="10" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9492,7 +9498,7 @@
       <c r="G200" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H200" s="5" t="s">
+      <c r="H200" s="10" t="s">
         <v>517</v>
       </c>
     </row>
@@ -9518,7 +9524,7 @@
       <c r="G201" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H201" s="5" t="s">
+      <c r="H201" s="10" t="s">
         <v>519</v>
       </c>
     </row>
@@ -9544,7 +9550,7 @@
       <c r="G202" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H202" s="5" t="s">
+      <c r="H202" s="10" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9570,7 +9576,7 @@
       <c r="G203" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H203" s="5" t="s">
+      <c r="H203" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -9596,7 +9602,7 @@
       <c r="G204" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H204" s="5" t="s">
+      <c r="H204" s="10" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9622,7 +9628,7 @@
       <c r="G205" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H205" s="5" t="s">
+      <c r="H205" s="10" t="s">
         <v>528</v>
       </c>
     </row>
@@ -9648,7 +9654,7 @@
       <c r="G206" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H206" s="5" t="s">
+      <c r="H206" s="10" t="s">
         <v>530</v>
       </c>
     </row>
@@ -9674,7 +9680,7 @@
       <c r="G207" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H207" s="5" t="s">
+      <c r="H207" s="10" t="s">
         <v>532</v>
       </c>
     </row>
@@ -9700,7 +9706,7 @@
       <c r="G208" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H208" s="5" t="s">
+      <c r="H208" s="10" t="s">
         <v>534</v>
       </c>
     </row>
@@ -9726,7 +9732,7 @@
       <c r="G209" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H209" s="5" t="s">
+      <c r="H209" s="10" t="s">
         <v>536</v>
       </c>
     </row>
@@ -9752,7 +9758,7 @@
       <c r="G210" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H210" s="5" t="s">
+      <c r="H210" s="10" t="s">
         <v>538</v>
       </c>
     </row>
@@ -9778,7 +9784,7 @@
       <c r="G211" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H211" s="5" t="s">
+      <c r="H211" s="10" t="s">
         <v>540</v>
       </c>
     </row>
@@ -9804,7 +9810,7 @@
       <c r="G212" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H212" s="5" t="s">
+      <c r="H212" s="10" t="s">
         <v>543</v>
       </c>
     </row>
@@ -9830,7 +9836,7 @@
       <c r="G213" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H213" s="5" t="s">
+      <c r="H213" s="10" t="s">
         <v>545</v>
       </c>
     </row>
@@ -9856,7 +9862,7 @@
       <c r="G214" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H214" s="5" t="s">
+      <c r="H214" s="10" t="s">
         <v>549</v>
       </c>
     </row>
@@ -9882,7 +9888,7 @@
       <c r="G215" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H215" s="5" t="s">
+      <c r="H215" s="10" t="s">
         <v>551</v>
       </c>
     </row>
@@ -9908,7 +9914,7 @@
       <c r="G216" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H216" s="5" t="s">
+      <c r="H216" s="10" t="s">
         <v>554</v>
       </c>
     </row>
@@ -9934,7 +9940,7 @@
       <c r="G217" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H217" s="5" t="s">
+      <c r="H217" s="10" t="s">
         <v>556</v>
       </c>
     </row>
@@ -9960,7 +9966,7 @@
       <c r="G218" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H218" s="5" t="s">
+      <c r="H218" s="10" t="s">
         <v>558</v>
       </c>
     </row>
@@ -9986,7 +9992,7 @@
       <c r="G219" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H219" s="5" t="s">
+      <c r="H219" s="10" t="s">
         <v>560</v>
       </c>
     </row>
@@ -10012,7 +10018,7 @@
       <c r="G220" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H220" s="5" t="s">
+      <c r="H220" s="10" t="s">
         <v>562</v>
       </c>
     </row>
@@ -10038,7 +10044,7 @@
       <c r="G221" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H221" s="5" t="s">
+      <c r="H221" s="10" t="s">
         <v>564</v>
       </c>
     </row>
@@ -10064,7 +10070,7 @@
       <c r="G222" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H222" s="5" t="s">
+      <c r="H222" s="10" t="s">
         <v>567</v>
       </c>
     </row>
@@ -10090,7 +10096,7 @@
       <c r="G223" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H223" s="5" t="s">
+      <c r="H223" s="10" t="s">
         <v>569</v>
       </c>
     </row>
@@ -10116,7 +10122,7 @@
       <c r="G224" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H224" s="5" t="s">
+      <c r="H224" s="10" t="s">
         <v>572</v>
       </c>
     </row>
@@ -10142,7 +10148,7 @@
       <c r="G225" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H225" s="5" t="s">
+      <c r="H225" s="10" t="s">
         <v>574</v>
       </c>
     </row>
@@ -10168,7 +10174,7 @@
       <c r="G226" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H226" s="5" t="s">
+      <c r="H226" s="10" t="s">
         <v>576</v>
       </c>
     </row>
@@ -10194,7 +10200,7 @@
       <c r="G227" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H227" s="5" t="s">
+      <c r="H227" s="10" t="s">
         <v>579</v>
       </c>
     </row>
@@ -10220,7 +10226,7 @@
       <c r="G228" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H228" s="5" t="s">
+      <c r="H228" s="10" t="s">
         <v>581</v>
       </c>
     </row>
@@ -10246,7 +10252,7 @@
       <c r="G229" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H229" s="5" t="s">
+      <c r="H229" s="10" t="s">
         <v>583</v>
       </c>
     </row>
@@ -10272,7 +10278,7 @@
       <c r="G230" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H230" s="5" t="s">
+      <c r="H230" s="10" t="s">
         <v>585</v>
       </c>
     </row>
@@ -10298,7 +10304,7 @@
       <c r="G231" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="5" t="s">
+      <c r="H231" s="10" t="s">
         <v>587</v>
       </c>
     </row>
@@ -10324,7 +10330,7 @@
       <c r="G232" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H232" s="5" t="s">
+      <c r="H232" s="10" t="s">
         <v>589</v>
       </c>
     </row>
@@ -10350,7 +10356,7 @@
       <c r="G233" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H233" s="5" t="s">
+      <c r="H233" s="10" t="s">
         <v>302</v>
       </c>
     </row>
@@ -10376,7 +10382,7 @@
       <c r="G234" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H234" s="5" t="s">
+      <c r="H234" s="10" t="s">
         <v>592</v>
       </c>
     </row>
@@ -10402,7 +10408,7 @@
       <c r="G235" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H235" s="5" t="s">
+      <c r="H235" s="10" t="s">
         <v>595</v>
       </c>
     </row>
@@ -10428,7 +10434,7 @@
       <c r="G236" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H236" s="5" t="s">
+      <c r="H236" s="10" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10454,7 +10460,7 @@
       <c r="G237" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H237" s="5" t="s">
+      <c r="H237" s="10" t="s">
         <v>600</v>
       </c>
     </row>
@@ -10480,7 +10486,7 @@
       <c r="G238" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H238" s="5" t="s">
+      <c r="H238" s="10" t="s">
         <v>602</v>
       </c>
     </row>
@@ -10506,7 +10512,7 @@
       <c r="G239" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H239" s="5" t="s">
+      <c r="H239" s="10" t="s">
         <v>604</v>
       </c>
     </row>
@@ -10532,7 +10538,7 @@
       <c r="G240" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H240" s="5" t="s">
+      <c r="H240" s="10" t="s">
         <v>606</v>
       </c>
     </row>
@@ -10558,7 +10564,7 @@
       <c r="G241" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H241" s="5" t="s">
+      <c r="H241" s="10" t="s">
         <v>608</v>
       </c>
     </row>
@@ -10584,7 +10590,7 @@
       <c r="G242" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H242" s="5" t="s">
+      <c r="H242" s="10" t="s">
         <v>610</v>
       </c>
     </row>
@@ -10610,7 +10616,7 @@
       <c r="G243" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H243" s="5" t="s">
+      <c r="H243" s="10" t="s">
         <v>612</v>
       </c>
     </row>
@@ -10636,7 +10642,7 @@
       <c r="G244" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H244" s="5" t="s">
+      <c r="H244" s="10" t="s">
         <v>614</v>
       </c>
     </row>
@@ -10662,7 +10668,7 @@
       <c r="G245" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H245" s="5" t="s">
+      <c r="H245" s="10" t="s">
         <v>617</v>
       </c>
     </row>
@@ -10688,7 +10694,7 @@
       <c r="G246" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H246" s="5" t="s">
+      <c r="H246" s="10" t="s">
         <v>619</v>
       </c>
     </row>
@@ -10714,7 +10720,7 @@
       <c r="G247" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H247" s="5" t="s">
+      <c r="H247" s="10" t="s">
         <v>621</v>
       </c>
     </row>
@@ -10740,7 +10746,7 @@
       <c r="G248" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H248" s="5" t="s">
+      <c r="H248" s="10" t="s">
         <v>623</v>
       </c>
     </row>
@@ -10766,7 +10772,7 @@
       <c r="G249" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H249" s="5" t="s">
+      <c r="H249" s="10" t="s">
         <v>625</v>
       </c>
     </row>
@@ -10792,7 +10798,7 @@
       <c r="G250" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H250" s="5" t="s">
+      <c r="H250" s="10" t="s">
         <v>627</v>
       </c>
     </row>
@@ -10818,7 +10824,7 @@
       <c r="G251" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H251" s="5" t="s">
+      <c r="H251" s="10" t="s">
         <v>629</v>
       </c>
     </row>
@@ -10844,7 +10850,7 @@
       <c r="G252" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H252" s="5" t="s">
+      <c r="H252" s="10" t="s">
         <v>631</v>
       </c>
     </row>
@@ -10870,7 +10876,7 @@
       <c r="G253" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H253" s="5" t="s">
+      <c r="H253" s="10" t="s">
         <v>633</v>
       </c>
     </row>
@@ -10896,7 +10902,7 @@
       <c r="G254" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H254" s="5" t="s">
+      <c r="H254" s="10" t="s">
         <v>635</v>
       </c>
     </row>
@@ -10922,7 +10928,7 @@
       <c r="G255" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H255" s="5" t="s">
+      <c r="H255" s="10" t="s">
         <v>637</v>
       </c>
     </row>
@@ -10948,7 +10954,7 @@
       <c r="G256" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H256" s="5" t="s">
+      <c r="H256" s="10" t="s">
         <v>640</v>
       </c>
     </row>
@@ -10974,7 +10980,7 @@
       <c r="G257" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H257" s="5" t="s">
+      <c r="H257" s="10" t="s">
         <v>642</v>
       </c>
     </row>
@@ -11000,7 +11006,7 @@
       <c r="G258" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H258" s="5" t="s">
+      <c r="H258" s="10" t="s">
         <v>644</v>
       </c>
     </row>
@@ -11026,7 +11032,7 @@
       <c r="G259" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H259" s="5" t="s">
+      <c r="H259" s="10" t="s">
         <v>647</v>
       </c>
     </row>
@@ -11052,7 +11058,7 @@
       <c r="G260" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H260" s="5" t="s">
+      <c r="H260" s="10" t="s">
         <v>649</v>
       </c>
     </row>
@@ -11078,7 +11084,7 @@
       <c r="G261" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H261" s="5" t="s">
+      <c r="H261" s="10" t="s">
         <v>651</v>
       </c>
     </row>
@@ -11104,7 +11110,7 @@
       <c r="G262" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H262" s="5" t="s">
+      <c r="H262" s="10" t="s">
         <v>653</v>
       </c>
     </row>
@@ -11130,7 +11136,7 @@
       <c r="G263" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H263" s="5" t="s">
+      <c r="H263" s="10" t="s">
         <v>655</v>
       </c>
     </row>
@@ -11156,7 +11162,7 @@
       <c r="G264" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H264" s="5" t="s">
+      <c r="H264" s="10" t="s">
         <v>657</v>
       </c>
     </row>
@@ -11182,7 +11188,7 @@
       <c r="G265" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H265" s="5" t="s">
+      <c r="H265" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -11208,7 +11214,7 @@
       <c r="G266" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H266" s="5" t="s">
+      <c r="H266" s="10" t="s">
         <v>661</v>
       </c>
     </row>
@@ -11234,7 +11240,7 @@
       <c r="G267" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H267" s="5" t="s">
+      <c r="H267" s="10" t="s">
         <v>663</v>
       </c>
     </row>
@@ -11260,7 +11266,7 @@
       <c r="G268" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H268" s="5" t="s">
+      <c r="H268" s="10" t="s">
         <v>665</v>
       </c>
     </row>
@@ -11286,7 +11292,7 @@
       <c r="G269" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H269" s="5" t="s">
+      <c r="H269" s="10" t="s">
         <v>668</v>
       </c>
     </row>
@@ -11312,7 +11318,7 @@
       <c r="G270" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H270" s="5" t="s">
+      <c r="H270" s="10" t="s">
         <v>670</v>
       </c>
     </row>
@@ -11338,7 +11344,7 @@
       <c r="G271" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H271" s="5" t="s">
+      <c r="H271" s="10" t="s">
         <v>673</v>
       </c>
     </row>
@@ -11364,7 +11370,7 @@
       <c r="G272" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H272" s="5" t="s">
+      <c r="H272" s="10" t="s">
         <v>676</v>
       </c>
     </row>
@@ -11390,7 +11396,7 @@
       <c r="G273" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H273" s="5" t="s">
+      <c r="H273" s="9" t="s">
         <v>678</v>
       </c>
     </row>
@@ -11416,7 +11422,7 @@
       <c r="G274" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H274" s="5" t="s">
+      <c r="H274" s="10" t="s">
         <v>680</v>
       </c>
     </row>
@@ -11442,7 +11448,7 @@
       <c r="G275" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H275" s="5" t="s">
+      <c r="H275" s="10" t="s">
         <v>682</v>
       </c>
     </row>
@@ -11468,7 +11474,7 @@
       <c r="G276" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H276" s="5" t="s">
+      <c r="H276" s="10" t="s">
         <v>684</v>
       </c>
     </row>
@@ -11494,7 +11500,7 @@
       <c r="G277" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H277" s="5" t="s">
+      <c r="H277" s="10" t="s">
         <v>686</v>
       </c>
     </row>
@@ -11520,7 +11526,7 @@
       <c r="G278" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H278" s="5" t="s">
+      <c r="H278" s="10" t="s">
         <v>688</v>
       </c>
     </row>
@@ -11546,7 +11552,7 @@
       <c r="G279" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H279" s="5" t="s">
+      <c r="H279" s="10" t="s">
         <v>690</v>
       </c>
     </row>
@@ -11572,7 +11578,7 @@
       <c r="G280" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H280" s="5" t="s">
+      <c r="H280" s="9" t="s">
         <v>692</v>
       </c>
     </row>
@@ -11598,7 +11604,7 @@
       <c r="G281" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H281" s="5" t="s">
+      <c r="H281" s="10" t="s">
         <v>694</v>
       </c>
     </row>
@@ -11624,7 +11630,7 @@
       <c r="G282" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H282" s="5" t="s">
+      <c r="H282" s="10" t="s">
         <v>697</v>
       </c>
     </row>
@@ -11650,7 +11656,7 @@
       <c r="G283" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H283" s="5" t="s">
+      <c r="H283" s="10" t="s">
         <v>699</v>
       </c>
     </row>
@@ -11676,7 +11682,7 @@
       <c r="G284" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H284" s="5" t="s">
+      <c r="H284" s="9" t="s">
         <v>702</v>
       </c>
     </row>
@@ -11702,7 +11708,7 @@
       <c r="G285" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H285" s="5" t="s">
+      <c r="H285" s="10" t="s">
         <v>704</v>
       </c>
     </row>
@@ -11728,7 +11734,7 @@
       <c r="G286" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H286" s="5" t="s">
+      <c r="H286" s="10" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11754,7 +11760,7 @@
       <c r="G287" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H287" s="5" t="s">
+      <c r="H287" s="9" t="s">
         <v>708</v>
       </c>
     </row>
@@ -11780,7 +11786,7 @@
       <c r="G288" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H288" s="5" t="s">
+      <c r="H288" s="10" t="s">
         <v>710</v>
       </c>
     </row>
@@ -11806,7 +11812,7 @@
       <c r="G289" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H289" s="5" t="s">
+      <c r="H289" s="10" t="s">
         <v>712</v>
       </c>
     </row>
@@ -11832,7 +11838,7 @@
       <c r="G290" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H290" s="5" t="s">
+      <c r="H290" s="10" t="s">
         <v>714</v>
       </c>
     </row>
@@ -11858,7 +11864,7 @@
       <c r="G291" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H291" s="5" t="s">
+      <c r="H291" s="10" t="s">
         <v>716</v>
       </c>
     </row>
@@ -11884,7 +11890,7 @@
       <c r="G292" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H292" s="5" t="s">
+      <c r="H292" s="10" t="s">
         <v>718</v>
       </c>
     </row>
@@ -11910,7 +11916,7 @@
       <c r="G293" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H293" s="5" t="s">
+      <c r="H293" s="10" t="s">
         <v>720</v>
       </c>
     </row>
@@ -11936,7 +11942,7 @@
       <c r="G294" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H294" s="5" t="s">
+      <c r="H294" s="9" t="s">
         <v>722</v>
       </c>
     </row>
@@ -11962,7 +11968,7 @@
       <c r="G295" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H295" s="5" t="s">
+      <c r="H295" s="10" t="s">
         <v>724</v>
       </c>
     </row>
@@ -11988,7 +11994,7 @@
       <c r="G296" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H296" s="5" t="s">
+      <c r="H296" s="10" t="s">
         <v>726</v>
       </c>
     </row>
@@ -12014,7 +12020,7 @@
       <c r="G297" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H297" s="5" t="s">
+      <c r="H297" s="10" t="s">
         <v>728</v>
       </c>
     </row>
@@ -12040,7 +12046,7 @@
       <c r="G298" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H298" s="5" t="s">
+      <c r="H298" s="10" t="s">
         <v>730</v>
       </c>
     </row>
@@ -12066,7 +12072,7 @@
       <c r="G299" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H299" s="5" t="s">
+      <c r="H299" s="10" t="s">
         <v>732</v>
       </c>
     </row>
@@ -12092,7 +12098,7 @@
       <c r="G300" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H300" s="5" t="s">
+      <c r="H300" s="10" t="s">
         <v>735</v>
       </c>
     </row>
@@ -12118,7 +12124,7 @@
       <c r="G301" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H301" s="5" t="s">
+      <c r="H301" s="9" t="s">
         <v>738</v>
       </c>
     </row>
@@ -12144,7 +12150,7 @@
       <c r="G302" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H302" s="5" t="s">
+      <c r="H302" s="9" t="s">
         <v>740</v>
       </c>
     </row>
@@ -12170,7 +12176,7 @@
       <c r="G303" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H303" s="5" t="s">
+      <c r="H303" s="10" t="s">
         <v>742</v>
       </c>
     </row>
@@ -12196,7 +12202,7 @@
       <c r="G304" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H304" s="5" t="s">
+      <c r="H304" s="10" t="s">
         <v>744</v>
       </c>
     </row>
@@ -12222,7 +12228,7 @@
       <c r="G305" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H305" s="5" t="s">
+      <c r="H305" s="9" t="s">
         <v>746</v>
       </c>
     </row>
@@ -12248,7 +12254,7 @@
       <c r="G306" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H306" s="5" t="s">
+      <c r="H306" s="10" t="s">
         <v>748</v>
       </c>
     </row>
@@ -12274,7 +12280,7 @@
       <c r="G307" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H307" s="5" t="s">
+      <c r="H307" s="10" t="s">
         <v>750</v>
       </c>
     </row>
@@ -12300,7 +12306,7 @@
       <c r="G308" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H308" s="5" t="s">
+      <c r="H308" s="9" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12326,7 +12332,7 @@
       <c r="G309" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H309" s="5" t="s">
+      <c r="H309" s="10" t="s">
         <v>754</v>
       </c>
     </row>
@@ -12352,7 +12358,7 @@
       <c r="G310" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H310" s="5" t="s">
+      <c r="H310" s="10" t="s">
         <v>756</v>
       </c>
     </row>
@@ -12378,7 +12384,7 @@
       <c r="G311" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H311" s="5" t="s">
+      <c r="H311" s="9" t="s">
         <v>758</v>
       </c>
     </row>
@@ -12404,7 +12410,7 @@
       <c r="G312" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H312" s="5" t="s">
+      <c r="H312" s="9" t="s">
         <v>761</v>
       </c>
     </row>
@@ -12430,7 +12436,7 @@
       <c r="G313" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H313" s="5" t="s">
+      <c r="H313" s="9" t="s">
         <v>764</v>
       </c>
     </row>
@@ -12456,7 +12462,7 @@
       <c r="G314" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H314" s="5" t="s">
+      <c r="H314" s="9" t="s">
         <v>766</v>
       </c>
     </row>
@@ -12482,7 +12488,7 @@
       <c r="G315" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H315" s="5" t="s">
+      <c r="H315" s="9" t="s">
         <v>768</v>
       </c>
     </row>
@@ -12508,7 +12514,7 @@
       <c r="G316" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H316" s="5" t="s">
+      <c r="H316" s="9" t="s">
         <v>770</v>
       </c>
     </row>
@@ -12534,7 +12540,7 @@
       <c r="G317" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H317" s="5" t="s">
+      <c r="H317" s="9" t="s">
         <v>772</v>
       </c>
     </row>
@@ -12560,7 +12566,7 @@
       <c r="G318" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H318" s="5" t="s">
+      <c r="H318" s="9" t="s">
         <v>774</v>
       </c>
     </row>
@@ -12586,7 +12592,7 @@
       <c r="G319" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H319" s="5" t="s">
+      <c r="H319" s="9" t="s">
         <v>776</v>
       </c>
     </row>
@@ -12612,7 +12618,7 @@
       <c r="G320" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H320" s="5" t="s">
+      <c r="H320" s="9" t="s">
         <v>778</v>
       </c>
     </row>

--- a/Twitters_19thCongressMembers.xlsx
+++ b/Twitters_19thCongressMembers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9537D1-0821-4F55-ADC5-8C3261896306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57780EDA-6F1E-42D4-B9EC-913DCC76BB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C0650F-6D5B-4461-AA3F-5F73C03E0D01}"/>
   </bookViews>
@@ -3852,7 +3852,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3878,8 +3878,15 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3898,6 +3905,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3911,7 +3924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3944,6 +3957,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4280,8 +4294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712D87A-21AD-4759-B6E5-0245C6DE7A64}">
   <dimension ref="A1:M546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H319" sqref="H319"/>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H350" sqref="H350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11396,7 +11410,7 @@
       <c r="G273" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H273" s="9" t="s">
+      <c r="H273" s="10" t="s">
         <v>678</v>
       </c>
     </row>
@@ -11578,7 +11592,7 @@
       <c r="G280" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H280" s="9" t="s">
+      <c r="H280" s="10" t="s">
         <v>692</v>
       </c>
     </row>
@@ -11682,7 +11696,7 @@
       <c r="G284" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H284" s="9" t="s">
+      <c r="H284" s="10" t="s">
         <v>702</v>
       </c>
     </row>
@@ -11760,7 +11774,7 @@
       <c r="G287" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H287" s="9" t="s">
+      <c r="H287" s="10" t="s">
         <v>708</v>
       </c>
     </row>
@@ -11942,7 +11956,7 @@
       <c r="G294" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H294" s="9" t="s">
+      <c r="H294" s="10" t="s">
         <v>722</v>
       </c>
     </row>
@@ -12124,7 +12138,7 @@
       <c r="G301" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H301" s="9" t="s">
+      <c r="H301" s="10" t="s">
         <v>738</v>
       </c>
     </row>
@@ -12150,7 +12164,7 @@
       <c r="G302" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H302" s="9" t="s">
+      <c r="H302" s="10" t="s">
         <v>740</v>
       </c>
     </row>
@@ -12228,7 +12242,7 @@
       <c r="G305" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H305" s="9" t="s">
+      <c r="H305" s="10" t="s">
         <v>746</v>
       </c>
     </row>
@@ -12306,7 +12320,7 @@
       <c r="G308" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H308" s="9" t="s">
+      <c r="H308" s="10" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12384,7 +12398,7 @@
       <c r="G311" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H311" s="9" t="s">
+      <c r="H311" s="10" t="s">
         <v>758</v>
       </c>
     </row>
@@ -12410,7 +12424,7 @@
       <c r="G312" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H312" s="9" t="s">
+      <c r="H312" s="10" t="s">
         <v>761</v>
       </c>
     </row>
@@ -12436,7 +12450,7 @@
       <c r="G313" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H313" s="9" t="s">
+      <c r="H313" s="11" t="s">
         <v>764</v>
       </c>
     </row>
@@ -12462,7 +12476,7 @@
       <c r="G314" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H314" s="9" t="s">
+      <c r="H314" s="11" t="s">
         <v>766</v>
       </c>
     </row>
@@ -12488,7 +12502,7 @@
       <c r="G315" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H315" s="9" t="s">
+      <c r="H315" s="11" t="s">
         <v>768</v>
       </c>
     </row>
@@ -12514,7 +12528,7 @@
       <c r="G316" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H316" s="9" t="s">
+      <c r="H316" s="10" t="s">
         <v>770</v>
       </c>
     </row>
@@ -12540,7 +12554,7 @@
       <c r="G317" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H317" s="9" t="s">
+      <c r="H317" s="10" t="s">
         <v>772</v>
       </c>
     </row>
@@ -12566,7 +12580,7 @@
       <c r="G318" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H318" s="9" t="s">
+      <c r="H318" s="10" t="s">
         <v>774</v>
       </c>
     </row>
@@ -12592,7 +12606,7 @@
       <c r="G319" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H319" s="9" t="s">
+      <c r="H319" s="10" t="s">
         <v>776</v>
       </c>
     </row>
@@ -12618,7 +12632,7 @@
       <c r="G320" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H320" s="9" t="s">
+      <c r="H320" s="10" t="s">
         <v>778</v>
       </c>
     </row>
@@ -12644,7 +12658,7 @@
       <c r="G321" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H321" s="5" t="s">
+      <c r="H321" s="10" t="s">
         <v>780</v>
       </c>
     </row>
@@ -12670,7 +12684,7 @@
       <c r="G322" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H322" s="5" t="s">
+      <c r="H322" s="10" t="s">
         <v>782</v>
       </c>
     </row>
@@ -12696,7 +12710,7 @@
       <c r="G323" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H323" s="5" t="s">
+      <c r="H323" s="10" t="s">
         <v>784</v>
       </c>
     </row>
@@ -12722,7 +12736,7 @@
       <c r="G324" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H324" s="5" t="s">
+      <c r="H324" s="10" t="s">
         <v>786</v>
       </c>
     </row>
@@ -12748,7 +12762,7 @@
       <c r="G325" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H325" s="5" t="s">
+      <c r="H325" s="10" t="s">
         <v>789</v>
       </c>
     </row>
@@ -12774,7 +12788,7 @@
       <c r="G326" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H326" s="5" t="s">
+      <c r="H326" s="10" t="s">
         <v>791</v>
       </c>
     </row>
@@ -12800,7 +12814,7 @@
       <c r="G327" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H327" s="5" t="s">
+      <c r="H327" s="10" t="s">
         <v>793</v>
       </c>
     </row>
@@ -12826,7 +12840,7 @@
       <c r="G328" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H328" s="5" t="s">
+      <c r="H328" s="10" t="s">
         <v>795</v>
       </c>
     </row>
@@ -12852,7 +12866,7 @@
       <c r="G329" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H329" s="5" t="s">
+      <c r="H329" s="10" t="s">
         <v>797</v>
       </c>
     </row>
@@ -12878,7 +12892,7 @@
       <c r="G330" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H330" s="5" t="s">
+      <c r="H330" s="10" t="s">
         <v>799</v>
       </c>
     </row>
@@ -12904,7 +12918,7 @@
       <c r="G331" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H331" s="5" t="s">
+      <c r="H331" s="10" t="s">
         <v>801</v>
       </c>
     </row>
@@ -12930,7 +12944,7 @@
       <c r="G332" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H332" s="5" t="s">
+      <c r="H332" s="10" t="s">
         <v>803</v>
       </c>
     </row>
@@ -12956,7 +12970,7 @@
       <c r="G333" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H333" s="5" t="s">
+      <c r="H333" s="10" t="s">
         <v>805</v>
       </c>
     </row>
@@ -12982,7 +12996,7 @@
       <c r="G334" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H334" s="5" t="s">
+      <c r="H334" s="10" t="s">
         <v>807</v>
       </c>
     </row>
@@ -13008,7 +13022,7 @@
       <c r="G335" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H335" s="5" t="s">
+      <c r="H335" s="10" t="s">
         <v>809</v>
       </c>
     </row>
@@ -13034,7 +13048,7 @@
       <c r="G336" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H336" s="5" t="s">
+      <c r="H336" s="10" t="s">
         <v>811</v>
       </c>
     </row>
@@ -13060,7 +13074,7 @@
       <c r="G337" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H337" s="5" t="s">
+      <c r="H337" s="10" t="s">
         <v>813</v>
       </c>
     </row>
@@ -13086,7 +13100,7 @@
       <c r="G338" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H338" s="5" t="s">
+      <c r="H338" s="10" t="s">
         <v>815</v>
       </c>
     </row>
@@ -13112,7 +13126,7 @@
       <c r="G339" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H339" s="5" t="s">
+      <c r="H339" s="10" t="s">
         <v>817</v>
       </c>
     </row>
@@ -13138,7 +13152,7 @@
       <c r="G340" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H340" s="5" t="s">
+      <c r="H340" s="10" t="s">
         <v>820</v>
       </c>
     </row>
@@ -13164,7 +13178,7 @@
       <c r="G341" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H341" s="5" t="s">
+      <c r="H341" s="10" t="s">
         <v>822</v>
       </c>
     </row>
@@ -13190,7 +13204,7 @@
       <c r="G342" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H342" s="5" t="s">
+      <c r="H342" s="10" t="s">
         <v>824</v>
       </c>
     </row>
@@ -13216,7 +13230,7 @@
       <c r="G343" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H343" s="5" t="s">
+      <c r="H343" s="10" t="s">
         <v>826</v>
       </c>
     </row>
@@ -13242,7 +13256,7 @@
       <c r="G344" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H344" s="5" t="s">
+      <c r="H344" s="10" t="s">
         <v>828</v>
       </c>
     </row>
@@ -13268,7 +13282,7 @@
       <c r="G345" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H345" s="5" t="s">
+      <c r="H345" s="10" t="s">
         <v>830</v>
       </c>
     </row>
@@ -13294,7 +13308,7 @@
       <c r="G346" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H346" s="5" t="s">
+      <c r="H346" s="10" t="s">
         <v>832</v>
       </c>
     </row>
@@ -13320,7 +13334,7 @@
       <c r="G347" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H347" s="5" t="s">
+      <c r="H347" s="10" t="s">
         <v>834</v>
       </c>
     </row>
@@ -13346,7 +13360,7 @@
       <c r="G348" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H348" s="5" t="s">
+      <c r="H348" s="10" t="s">
         <v>836</v>
       </c>
     </row>
@@ -13372,7 +13386,7 @@
       <c r="G349" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H349" s="5" t="s">
+      <c r="H349" s="10" t="s">
         <v>838</v>
       </c>
     </row>
@@ -13398,7 +13412,7 @@
       <c r="G350" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H350" s="5" t="s">
+      <c r="H350" s="11" t="s">
         <v>840</v>
       </c>
     </row>
@@ -13424,7 +13438,7 @@
       <c r="G351" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H351" s="5" t="s">
+      <c r="H351" s="9" t="s">
         <v>842</v>
       </c>
     </row>
@@ -13450,11 +13464,11 @@
       <c r="G352" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H352" s="5" t="s">
+      <c r="H352" s="9" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>845</v>
       </c>
@@ -13480,7 +13494,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>847</v>
       </c>
@@ -13506,7 +13520,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>850</v>
       </c>
@@ -13532,7 +13546,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>852</v>
       </c>
@@ -13558,7 +13572,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>854</v>
       </c>
@@ -13584,7 +13598,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>856</v>
       </c>
@@ -13609,8 +13623,14 @@
       <c r="H358" s="5" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L358" s="12">
+        <v>29</v>
+      </c>
+      <c r="M358" s="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>858</v>
       </c>
@@ -13635,8 +13655,14 @@
       <c r="H359" s="5" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L359" s="12">
+        <v>30</v>
+      </c>
+      <c r="M359" s="12">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>860</v>
       </c>
@@ -13661,8 +13687,14 @@
       <c r="H360" s="5" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L360" s="12">
+        <v>1</v>
+      </c>
+      <c r="M360" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>862</v>
       </c>
@@ -13687,8 +13719,14 @@
       <c r="H361" s="5" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L361" s="12">
+        <v>2</v>
+      </c>
+      <c r="M361" s="12">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>865</v>
       </c>
@@ -13714,7 +13752,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>867</v>
       </c>
@@ -13740,7 +13778,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>869</v>
       </c>
@@ -13766,7 +13804,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>872</v>
       </c>
@@ -13792,7 +13830,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>874</v>
       </c>
@@ -13818,7 +13856,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>876</v>
       </c>
@@ -13844,7 +13882,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>878</v>
       </c>
